--- a/matlab/logDataProcess/ipb41-50.xlsx
+++ b/matlab/logDataProcess/ipb41-50.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2145" yWindow="345" windowWidth="26925" windowHeight="14340"/>
+    <workbookView xWindow="-7320" yWindow="1710" windowWidth="30945" windowHeight="14340"/>
   </bookViews>
   <sheets>
     <sheet name="ipb1-40" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
   <si>
     <t>reactor</t>
   </si>
@@ -89,6 +89,51 @@
   </si>
   <si>
     <t>071317</t>
+  </si>
+  <si>
+    <t>IPB4-3_10us-80ns_400-600C_H2_7-13-17_day-01.csv</t>
+  </si>
+  <si>
+    <t>071417</t>
+  </si>
+  <si>
+    <t>10us-80ns-400c-600c</t>
+  </si>
+  <si>
+    <t>071617</t>
+  </si>
+  <si>
+    <t>10us-35v-100ns-325v-550-650c_day-01.csv</t>
+  </si>
+  <si>
+    <t>10us-80ns-550c-650c</t>
+  </si>
+  <si>
+    <t>2017-07-20-V1812-Core50b_V4.1reactor</t>
+  </si>
+  <si>
+    <t>072117</t>
+  </si>
+  <si>
+    <t>IPB4-3_Qseq_PW_10us-80ns_50W_275-325C_H2_day-01.csv</t>
+  </si>
+  <si>
+    <t>072217</t>
+  </si>
+  <si>
+    <t>10us-80ns-275-325c</t>
+  </si>
+  <si>
+    <t>10us-80ns-275-325-no-core</t>
+  </si>
+  <si>
+    <t>10us-35v-filtered-724_day-01.csv</t>
+  </si>
+  <si>
+    <t>072517</t>
+  </si>
+  <si>
+    <t>10us-35v-275-325c</t>
   </si>
 </sst>
 </file>
@@ -938,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1070,24 +1115,261 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2">
+        <v>7</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N3" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O3" s="2">
+        <v>1810</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C4" s="3"/>
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="D4" s="3"/>
+      <c r="E4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="2">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2">
+        <v>11</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N4" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1810</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C5" s="3"/>
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="D5" s="3"/>
+      <c r="E5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N5" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O5" s="2">
+        <v>1812</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C6" s="3"/>
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D6" s="3"/>
+      <c r="E6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3</v>
+      </c>
+      <c r="G6" s="2">
+        <v>4</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N6" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1812</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C7" s="3"/>
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="D7" s="3"/>
+      <c r="E7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="2">
+        <v>6</v>
+      </c>
+      <c r="G7" s="2">
+        <v>7</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N7" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1812</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C8" s="3"/>

--- a/matlab/logDataProcess/ipb41-50.xlsx
+++ b/matlab/logDataProcess/ipb41-50.xlsx
@@ -984,7 +984,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1239,7 +1239,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I5" s="2">
         <v>0</v>
